--- a/対面式/質問リスト 後半.xlsx
+++ b/対面式/質問リスト 後半.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daichi\git\dormitory\対面式\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E46FFB-EC99-437F-BBC6-70B5F4883687}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C03B93-73B7-470B-BBBE-CBE9BC857FEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12210" windowHeight="9105" xr2:uid="{620D9499-0A73-437A-9D59-0F4FEB3D05D8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="172">
   <si>
     <t>5-1-j</t>
     <phoneticPr fontId="1"/>
@@ -1023,6 +1023,22 @@
     <t>77点</t>
     <rPh sb="2" eb="3">
       <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食堂前, 3号館1階</t>
+    <rPh sb="0" eb="2">
+      <t>ショクドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゴウカン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3088,7 +3104,7 @@
         <v>59</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
@@ -3393,7 +3409,7 @@
         <v>59</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>24</v>
